--- a/data_oficial.xlsx
+++ b/data_oficial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/047fa1933fd6d52d/Ambiente de Trabalho/LABS - DV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{DEB58108-A747-463A-ACD0-592D9D094F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E61BEE2-5866-4F3F-BF89-104EAE8AB632}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{DEB58108-A747-463A-ACD0-592D9D094F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1AD3458B-59D9-4632-BC96-4AF34E71520D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,24 +660,6 @@
     <t>commercial_service_imports</t>
   </si>
   <si>
-    <t xml:space="preserve">computer_communications_otherservices(exports) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">computer_communications_otherservices(imports) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">insurance_financial_services(imports) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">insurance_financial_services(exports) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">transport_services(exports) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">transport_services(imports) </t>
-  </si>
-  <si>
     <t>merchandise_exports</t>
   </si>
   <si>
@@ -690,13 +672,7 @@
     <t>agricultural_raw materials_exports(merchandise_exports)</t>
   </si>
   <si>
-    <t xml:space="preserve">ores_metals_exports(merchandise_exports) </t>
-  </si>
-  <si>
     <t>fuel_exports(merchandise_exports)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food_imports(merchandise_imports) </t>
   </si>
   <si>
     <t>fuel_imports(merchandise_imports)</t>
@@ -711,13 +687,37 @@
     <t>merchandise_imports</t>
   </si>
   <si>
-    <t xml:space="preserve">ores_metals_imports(merchandise_imports) </t>
-  </si>
-  <si>
     <t>services_trade</t>
   </si>
   <si>
     <t>GDP</t>
+  </si>
+  <si>
+    <t>food_imports(merchandise_imports)</t>
+  </si>
+  <si>
+    <t>computer_communications_otherservices(exports)</t>
+  </si>
+  <si>
+    <t>computer_communications_otherservices(imports)</t>
+  </si>
+  <si>
+    <t>insurance_financial_services(imports)</t>
+  </si>
+  <si>
+    <t>insurance_financial_services(exports)</t>
+  </si>
+  <si>
+    <t>transport_services(exports)</t>
+  </si>
+  <si>
+    <t>ores_metals_exports(merchandise_exports)</t>
+  </si>
+  <si>
+    <t>ores_metals_imports(merchandise_imports)</t>
+  </si>
+  <si>
+    <t>transport_services(imports)</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:Z908"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1114,64 +1114,64 @@
         <v>207</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="W1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="X1" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.35">

--- a/data_oficial.xlsx
+++ b/data_oficial.xlsx
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:Z908"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
